--- a/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>38174</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27817</v>
+        <v>28154</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52811</v>
+        <v>52059</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05500474627819064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04008116629554263</v>
+        <v>0.04056706272876009</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07609564425316602</v>
+        <v>0.07501102607021304</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>49</v>
@@ -765,19 +765,19 @@
         <v>48901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35923</v>
+        <v>35746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63009</v>
+        <v>62165</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07104081159517328</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05218756710973978</v>
+        <v>0.05193035653955911</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09153598603480081</v>
+        <v>0.09030992651290462</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -786,19 +786,19 @@
         <v>87075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70442</v>
+        <v>70731</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106641</v>
+        <v>107270</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06298994323801216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05095785319849221</v>
+        <v>0.05116674891171301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07714381493201267</v>
+        <v>0.07759933814880968</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>655838</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>641201</v>
+        <v>641953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>666195</v>
+        <v>665858</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9449952537218094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9239043557468337</v>
+        <v>0.9249889739297869</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9599188337044574</v>
+        <v>0.9594329372712398</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>647</v>
@@ -836,19 +836,19 @@
         <v>639450</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>625342</v>
+        <v>626186</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>652428</v>
+        <v>652605</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9289591884048267</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9084640139651992</v>
+        <v>0.9096900734870951</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9478124328902602</v>
+        <v>0.9480696434604409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1293</v>
@@ -857,19 +857,19 @@
         <v>1295288</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1275722</v>
+        <v>1275093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1311921</v>
+        <v>1311632</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9370100567619879</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9228561850679868</v>
+        <v>0.9224006618511902</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9490421468015077</v>
+        <v>0.9488332510882868</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>55183</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41547</v>
+        <v>39797</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74272</v>
+        <v>70707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05737479001192004</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04319704593987291</v>
+        <v>0.04137748649954889</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07722227130764779</v>
+        <v>0.07351569133270747</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -982,19 +982,19 @@
         <v>76917</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60671</v>
+        <v>61169</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95513</v>
+        <v>95990</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07942770492300934</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06265088889158141</v>
+        <v>0.06316504762174699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09863037617685684</v>
+        <v>0.09912267462445708</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -1003,19 +1003,19 @@
         <v>132100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110678</v>
+        <v>113319</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>156796</v>
+        <v>154901</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06843891106620198</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05734045392635456</v>
+        <v>0.05870869872544206</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08123309235020433</v>
+        <v>0.08025146715448639</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>906617</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>887528</v>
+        <v>891093</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920253</v>
+        <v>922003</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.94262520998808</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9227777286923522</v>
+        <v>0.9264843086672926</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9568029540601272</v>
+        <v>0.9586225135004511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>836</v>
@@ -1053,19 +1053,19 @@
         <v>891476</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>872880</v>
+        <v>872403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>907722</v>
+        <v>907224</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9205722950769907</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9013696238231431</v>
+        <v>0.9008773253755428</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9373491111084177</v>
+        <v>0.9368349523782528</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1682</v>
@@ -1074,19 +1074,19 @@
         <v>1798093</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1773397</v>
+        <v>1775292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1819515</v>
+        <v>1816874</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.931561088933798</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9187669076497958</v>
+        <v>0.9197485328455138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9426595460736457</v>
+        <v>0.941291301274558</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>51940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>37161</v>
+        <v>37971</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67635</v>
+        <v>68437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07654977853424146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0547684761806614</v>
+        <v>0.05596269365146582</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09968235152250195</v>
+        <v>0.1008633312487058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1199,19 +1199,19 @@
         <v>71078</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>57026</v>
+        <v>56782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87812</v>
+        <v>87947</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1039396620944466</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08339053815899243</v>
+        <v>0.08303328939723993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1284095006190035</v>
+        <v>0.1286068053698387</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1220,19 +1220,19 @@
         <v>123018</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101688</v>
+        <v>102634</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>146671</v>
+        <v>147972</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09029832114515743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07464131677842253</v>
+        <v>0.07533607068570647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1076602648479527</v>
+        <v>0.1086150046942467</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>626569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>610874</v>
+        <v>610072</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>641348</v>
+        <v>640538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9234502214657585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9003176484774981</v>
+        <v>0.8991366687512942</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9452315238193386</v>
+        <v>0.9440373063485342</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>626</v>
@@ -1270,19 +1270,19 @@
         <v>612763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596029</v>
+        <v>595894</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626815</v>
+        <v>627059</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8960603379055534</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8715904993809965</v>
+        <v>0.8713931946301614</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9166094618410077</v>
+        <v>0.9169667106027602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1222</v>
@@ -1291,19 +1291,19 @@
         <v>1239332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1215679</v>
+        <v>1214378</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1260662</v>
+        <v>1259716</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9097016788548425</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8923397351520473</v>
+        <v>0.8913849953057533</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9253586832215775</v>
+        <v>0.9246639293142935</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>93352</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76596</v>
+        <v>76842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113387</v>
+        <v>113419</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09907648332853487</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08129274338296738</v>
+        <v>0.0815543996948094</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1203404785839072</v>
+        <v>0.120373634392464</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -1416,19 +1416,19 @@
         <v>99236</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>80591</v>
+        <v>81939</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119848</v>
+        <v>120290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09554630140495693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07759502907415319</v>
+        <v>0.07889231141284593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1153928190331551</v>
+        <v>0.1158175633922083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>188</v>
@@ -1437,19 +1437,19 @@
         <v>192588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>166753</v>
+        <v>167166</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>217976</v>
+        <v>222527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09722550079567277</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08418340835935602</v>
+        <v>0.08439178913627919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1100424558447261</v>
+        <v>0.1123403054760704</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>848870</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>828835</v>
+        <v>828803</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>865626</v>
+        <v>865380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9009235166714651</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8796595214160928</v>
+        <v>0.879626365607536</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9187072566170332</v>
+        <v>0.9184456003051906</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>904</v>
@@ -1487,19 +1487,19 @@
         <v>939376</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>918764</v>
+        <v>918322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>958021</v>
+        <v>956673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9044536985950431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8846071809668449</v>
+        <v>0.8841824366077916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9224049709258467</v>
+        <v>0.9211076885871539</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1803</v>
@@ -1508,19 +1508,19 @@
         <v>1788246</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1762858</v>
+        <v>1758307</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1814081</v>
+        <v>1813668</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9027744992043273</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8899575441552743</v>
+        <v>0.8876596945239298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9158165916406441</v>
+        <v>0.9156082108637209</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>238649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>208512</v>
+        <v>209440</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>271905</v>
+        <v>270418</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07283554118712565</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06363775814385855</v>
+        <v>0.06392091018881668</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08298529739842195</v>
+        <v>0.08253140945498448</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>284</v>
@@ -1633,19 +1633,19 @@
         <v>296132</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>263181</v>
+        <v>263093</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>330752</v>
+        <v>333191</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08763383293384923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07788274767754579</v>
+        <v>0.07785665563343803</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09787891872869575</v>
+        <v>0.09860053732673664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>511</v>
@@ -1654,19 +1654,19 @@
         <v>534781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>494058</v>
+        <v>490680</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>578659</v>
+        <v>580868</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08034880686593823</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07423037710159512</v>
+        <v>0.07372288706060959</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08694136937526339</v>
+        <v>0.08727319876414162</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3037894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3004638</v>
+        <v>3006125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3068031</v>
+        <v>3067103</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9271644588128743</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9170147026015779</v>
+        <v>0.9174685905450155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9363622418561413</v>
+        <v>0.9360790898111833</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3013</v>
@@ -1704,19 +1704,19 @@
         <v>3083065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3048445</v>
+        <v>3046006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3116016</v>
+        <v>3116104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9123661670661508</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.902121081271304</v>
+        <v>0.9013994626732633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9221172523224542</v>
+        <v>0.922143344366562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6000</v>
@@ -1725,19 +1725,19 @@
         <v>6120960</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6077082</v>
+        <v>6074873</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6161683</v>
+        <v>6165061</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9196511931340617</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9130586306247367</v>
+        <v>0.9127268012358586</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9257696228984048</v>
+        <v>0.9262771129393904</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>58140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45005</v>
+        <v>43223</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75018</v>
+        <v>74811</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0826477580475025</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0639763478902218</v>
+        <v>0.06144231843449621</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1066407672073169</v>
+        <v>0.1063456454549993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -2090,19 +2090,19 @@
         <v>71695</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57309</v>
+        <v>56465</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90686</v>
+        <v>87340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1028545728131904</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08221701890727943</v>
+        <v>0.08100607843085789</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1300997147870797</v>
+        <v>0.1252998370703784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>122</v>
@@ -2111,19 +2111,19 @@
         <v>129835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>108916</v>
+        <v>109043</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>153065</v>
+        <v>154485</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09270485862128096</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07776864905217198</v>
+        <v>0.07785913451034839</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1092919496325148</v>
+        <v>0.1103055366845286</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>645329</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>628451</v>
+        <v>628658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>658464</v>
+        <v>660246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9173522419524975</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8933592327926833</v>
+        <v>0.8936543545450006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9360236521097782</v>
+        <v>0.9385576815655038</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>584</v>
@@ -2161,19 +2161,19 @@
         <v>625355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>606364</v>
+        <v>609710</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>639741</v>
+        <v>640585</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8971454271868097</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8699002852129201</v>
+        <v>0.8747001629296216</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9177829810927204</v>
+        <v>0.9189939215691419</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1202</v>
@@ -2182,19 +2182,19 @@
         <v>1270684</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1247454</v>
+        <v>1246034</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1291603</v>
+        <v>1291476</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.907295141378719</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8907080503674849</v>
+        <v>0.8896944633154713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9222313509478278</v>
+        <v>0.9221408654896516</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>75153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60129</v>
+        <v>57850</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92667</v>
+        <v>92414</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07382808966127646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05906916542228526</v>
+        <v>0.05683048246695982</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0910331454832842</v>
+        <v>0.09078463122480189</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -2307,19 +2307,19 @@
         <v>75693</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58523</v>
+        <v>60031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94461</v>
+        <v>93476</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07333325600674719</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05669811311835355</v>
+        <v>0.05815967911469548</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09151561677683377</v>
+        <v>0.09056174300323207</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>138</v>
@@ -2328,19 +2328,19 @@
         <v>150846</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>127637</v>
+        <v>127226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>177276</v>
+        <v>176238</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07357895467913134</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06225800722255673</v>
+        <v>0.06205751246789713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08647039174798225</v>
+        <v>0.08596432815056269</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>942794</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>925280</v>
+        <v>925533</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>957818</v>
+        <v>960097</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9261719103387236</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9089668545167158</v>
+        <v>0.9092153687751982</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9409308345777146</v>
+        <v>0.9431695175330401</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>870</v>
@@ -2378,19 +2378,19 @@
         <v>956491</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>937723</v>
+        <v>938708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>973661</v>
+        <v>972153</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9266667439932528</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9084843832231664</v>
+        <v>0.9094382569967679</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9433018868816464</v>
+        <v>0.9418403208853047</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1738</v>
@@ -2399,19 +2399,19 @@
         <v>1899285</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1872855</v>
+        <v>1873893</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1922494</v>
+        <v>1922905</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9264210453208687</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9135296082520178</v>
+        <v>0.9140356718494373</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9377419927774433</v>
+        <v>0.9379424875321029</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>61450</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46679</v>
+        <v>46290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79621</v>
+        <v>79445</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08110947220278822</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06161213961332696</v>
+        <v>0.06109893635378296</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1050926211594364</v>
+        <v>0.1048611145492677</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -2524,19 +2524,19 @@
         <v>68001</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52639</v>
+        <v>53314</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86176</v>
+        <v>85890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08749760257693032</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06773071923364506</v>
+        <v>0.06860009851866845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1108839896677131</v>
+        <v>0.1105153526728929</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>114</v>
@@ -2545,19 +2545,19 @@
         <v>129451</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108660</v>
+        <v>109554</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154913</v>
+        <v>156367</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08434422431556812</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07079763030902896</v>
+        <v>0.07137980233056385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1009339682187943</v>
+        <v>0.1018814797768442</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>696173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678002</v>
+        <v>678178</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>710944</v>
+        <v>711333</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9188905277972118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8949073788405635</v>
+        <v>0.8951388854507324</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9383878603866728</v>
+        <v>0.9389010636462171</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -2595,19 +2595,19 @@
         <v>709173</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>690998</v>
+        <v>691284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724535</v>
+        <v>723860</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9125023974230697</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8891160103322869</v>
+        <v>0.8894846473271072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.932269280766355</v>
+        <v>0.9313999014813317</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1280</v>
@@ -2616,19 +2616,19 @@
         <v>1405346</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1379884</v>
+        <v>1378430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1426137</v>
+        <v>1425243</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9156557756844319</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8990660317812058</v>
+        <v>0.8981185202231559</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9292023696909719</v>
+        <v>0.9286201976694363</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>90322</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72968</v>
+        <v>72708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111496</v>
+        <v>111553</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09530304447706638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07699179750719964</v>
+        <v>0.0767177518307329</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1176441168061152</v>
+        <v>0.1177048159412329</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -2741,19 +2741,19 @@
         <v>138698</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117139</v>
+        <v>118450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>164443</v>
+        <v>163257</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1318543965678507</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1113596742934051</v>
+        <v>0.1126053375296422</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1563289503102429</v>
+        <v>0.1552016818273543</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>210</v>
@@ -2762,19 +2762,19 @@
         <v>229020</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>202458</v>
+        <v>199097</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>259309</v>
+        <v>259305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.11453070385927</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1012474266043693</v>
+        <v>0.09956656548332415</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1296778461177013</v>
+        <v>0.1296758444672135</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>857417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>836243</v>
+        <v>836186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>874771</v>
+        <v>875031</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9046969555229336</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8823558831938848</v>
+        <v>0.8822951840587672</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9230082024928004</v>
+        <v>0.9232822481692672</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>876</v>
@@ -2812,19 +2812,19 @@
         <v>913203</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>887458</v>
+        <v>888644</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>934762</v>
+        <v>933451</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8681456034321493</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8436710496897573</v>
+        <v>0.8447983181726454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8886403257065952</v>
+        <v>0.8873946624703577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1703</v>
@@ -2833,19 +2833,19 @@
         <v>1770620</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1740331</v>
+        <v>1740335</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1797182</v>
+        <v>1800543</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.88546929614073</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8703221538822988</v>
+        <v>0.8703241555327865</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8987525733956309</v>
+        <v>0.9004334345166759</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>285066</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>251991</v>
+        <v>252779</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>317560</v>
+        <v>318182</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08318777420176404</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07353589179371658</v>
+        <v>0.07376566413983661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09267017206440614</v>
+        <v>0.09285157762350343</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>324</v>
@@ -2958,19 +2958,19 @@
         <v>354087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>319051</v>
+        <v>317116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>393407</v>
+        <v>394650</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09950985906560679</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08966359619544415</v>
+        <v>0.08911999714698692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1105599777961754</v>
+        <v>0.110909527501871</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>584</v>
@@ -2979,19 +2979,19 @@
         <v>639153</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>592017</v>
+        <v>589481</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>690137</v>
+        <v>692958</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09150249025700991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08475446706629924</v>
+        <v>0.08439132617938079</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09880143431022401</v>
+        <v>0.09920536069947122</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3141713</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3109219</v>
+        <v>3108597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3174788</v>
+        <v>3174000</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.916812225798236</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9073298279355939</v>
+        <v>0.9071484223764971</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9264641082062837</v>
+        <v>0.9262343358601636</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2974</v>
@@ -3029,19 +3029,19 @@
         <v>3204222</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3164902</v>
+        <v>3163659</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3239258</v>
+        <v>3241193</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9004901409343932</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8894400222038247</v>
+        <v>0.889090472498129</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9103364038045558</v>
+        <v>0.9108800028530131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5923</v>
@@ -3050,19 +3050,19 @@
         <v>6345935</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6294951</v>
+        <v>6292130</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6393071</v>
+        <v>6395607</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9084975097429902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.901198565689776</v>
+        <v>0.9007946393005288</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9152455329337007</v>
+        <v>0.9156086738206192</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>83689</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68994</v>
+        <v>67770</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102757</v>
+        <v>104384</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1240210495177311</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1022434342976513</v>
+        <v>0.1004292250099114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1522778694694044</v>
+        <v>0.1546885090811086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -3415,19 +3415,19 @@
         <v>81871</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64051</v>
+        <v>65514</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>100947</v>
+        <v>100884</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1216799001498701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09519470304631629</v>
+        <v>0.09737006753062243</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.150031224252354</v>
+        <v>0.1499371298372261</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>157</v>
@@ -3436,19 +3436,19 @@
         <v>165560</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>143212</v>
+        <v>141725</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192954</v>
+        <v>190741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1228521781825751</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1062686639274536</v>
+        <v>0.1051656622336116</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1431794457267571</v>
+        <v>0.1415369261956275</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>591111</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>572043</v>
+        <v>570416</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>605806</v>
+        <v>607030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8759789504822689</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8477221305305956</v>
+        <v>0.845311490918891</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8977565657023489</v>
+        <v>0.8995707749900884</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>590</v>
@@ -3486,19 +3486,19 @@
         <v>590968</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>571892</v>
+        <v>571955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>608788</v>
+        <v>607325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8783200998501299</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8499687757476462</v>
+        <v>0.8500628701627739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9048052969536837</v>
+        <v>0.9026299324693776</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1161</v>
@@ -3507,19 +3507,19 @@
         <v>1182079</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1154685</v>
+        <v>1156898</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1204427</v>
+        <v>1205914</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8771478218174249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8568205542732429</v>
+        <v>0.8584630738043725</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8937313360725463</v>
+        <v>0.8948343377663884</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>107171</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>87754</v>
+        <v>88805</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>129562</v>
+        <v>129642</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1048195099150752</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08582921543259468</v>
+        <v>0.08685642874944399</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1267198466310583</v>
+        <v>0.1267973461155148</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -3632,19 +3632,19 @@
         <v>103123</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84821</v>
+        <v>83900</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125989</v>
+        <v>125216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09887962207077439</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08133093879080282</v>
+        <v>0.08044817139364331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1208048988730989</v>
+        <v>0.1200632783846477</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>191</v>
@@ -3653,19 +3653,19 @@
         <v>210294</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>183249</v>
+        <v>182141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>239904</v>
+        <v>240311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1018201130679768</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08872569566910607</v>
+        <v>0.08818912884430279</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1161567180539705</v>
+        <v>0.116354151466879</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>915260</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892869</v>
+        <v>892789</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>934677</v>
+        <v>933626</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8951804900849247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8732801533689419</v>
+        <v>0.8732026538844853</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9141707845674053</v>
+        <v>0.913143571250556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>889</v>
@@ -3703,19 +3703,19 @@
         <v>939790</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916924</v>
+        <v>917697</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>958092</v>
+        <v>959013</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9011203779292256</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.879195101126901</v>
+        <v>0.8799367216153522</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9186690612091971</v>
+        <v>0.9195518286063562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1737</v>
@@ -3724,19 +3724,19 @@
         <v>1855050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1825440</v>
+        <v>1825033</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1882095</v>
+        <v>1883203</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8981798869320232</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8838432819460295</v>
+        <v>0.8836458485331209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9112743043308937</v>
+        <v>0.9118108711556967</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>98633</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81464</v>
+        <v>79365</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121882</v>
+        <v>118556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1298571103970224</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1072524835092398</v>
+        <v>0.104489717066928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1604651825406386</v>
+        <v>0.156086345101027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -3849,19 +3849,19 @@
         <v>96591</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78112</v>
+        <v>78964</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117413</v>
+        <v>117867</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1230436767693965</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09950406246510513</v>
+        <v>0.1005897166969545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1495681565505169</v>
+        <v>0.1501467072263634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -3870,19 +3870,19 @@
         <v>195224</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166681</v>
+        <v>170498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224373</v>
+        <v>225746</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1263942415576968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1079147256417385</v>
+        <v>0.1103857536647848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1452663173852969</v>
+        <v>0.1461553531768018</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>660919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637670</v>
+        <v>640996</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678088</v>
+        <v>680187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8701428896029776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8395348174593614</v>
+        <v>0.8439136548989727</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8927475164907601</v>
+        <v>0.8955102829330719</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>650</v>
@@ -3920,19 +3920,19 @@
         <v>688420</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>667598</v>
+        <v>667144</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>706899</v>
+        <v>706047</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8769563232306036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8504318434494831</v>
+        <v>0.8498532927736366</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9004959375348949</v>
+        <v>0.8994102833030454</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1259</v>
@@ -3941,19 +3941,19 @@
         <v>1349339</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1320190</v>
+        <v>1318817</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1377882</v>
+        <v>1374065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8736057584423031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8547336826147031</v>
+        <v>0.8538446468231979</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8920852743582617</v>
+        <v>0.889614246335215</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>136602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>114948</v>
+        <v>116404</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>159212</v>
+        <v>159772</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1456983628522649</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1226024489757706</v>
+        <v>0.1241554989652876</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1698144825480568</v>
+        <v>0.1704108238450803</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>159</v>
@@ -4066,19 +4066,19 @@
         <v>186413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160687</v>
+        <v>161608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>213826</v>
+        <v>214055</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1785945888012918</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1539475947950938</v>
+        <v>0.1548293744519925</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2048576360930157</v>
+        <v>0.2050770022139128</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -4087,19 +4087,19 @@
         <v>323015</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>290350</v>
+        <v>291579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>356151</v>
+        <v>360395</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1630281931985307</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1465417889289785</v>
+        <v>0.1471622671893175</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1797519181563422</v>
+        <v>0.1818940235861427</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>800965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>778355</v>
+        <v>777795</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>822619</v>
+        <v>821163</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8543016371477351</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8301855174519435</v>
+        <v>0.8295891761549198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8773975510242296</v>
+        <v>0.8758445010347125</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>800</v>
@@ -4137,19 +4137,19 @@
         <v>857366</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829953</v>
+        <v>829724</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>883092</v>
+        <v>882171</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8214054111987081</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7951423639069843</v>
+        <v>0.7949229977860873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8460524052049062</v>
+        <v>0.8451706255480075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1598</v>
@@ -4158,19 +4158,19 @@
         <v>1658331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1625195</v>
+        <v>1620951</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1690996</v>
+        <v>1689767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8369718068014693</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8202480818436579</v>
+        <v>0.8181059764138572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8534582110710216</v>
+        <v>0.8528377328106824</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>426095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>387552</v>
+        <v>388093</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>467556</v>
+        <v>465822</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1255307575641389</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.114175577339665</v>
+        <v>0.1143349401157984</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1377453698558985</v>
+        <v>0.137234416393485</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>409</v>
@@ -4283,19 +4283,19 @@
         <v>467998</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>425638</v>
+        <v>429106</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>509095</v>
+        <v>513651</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1320333477715592</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1200827701813381</v>
+        <v>0.1210610439081573</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1436277704509533</v>
+        <v>0.1449132054327391</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>814</v>
@@ -4304,19 +4304,19 @@
         <v>894093</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>837203</v>
+        <v>837751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>955488</v>
+        <v>957935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1288524266369528</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1206536784878991</v>
+        <v>0.1207326474957449</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1377004009364672</v>
+        <v>0.1380529621694524</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2968255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2926794</v>
+        <v>2928528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3006798</v>
+        <v>3006257</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8744692424358611</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8622546301441015</v>
+        <v>0.862765583606515</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8858244226603349</v>
+        <v>0.8856650598842016</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2929</v>
@@ -4354,19 +4354,19 @@
         <v>3076544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3035447</v>
+        <v>3030891</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3118904</v>
+        <v>3115436</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8679666522284408</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8563722295490466</v>
+        <v>0.8550867945672616</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8799172298186618</v>
+        <v>0.8789389560918429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5755</v>
@@ -4375,19 +4375,19 @@
         <v>6044799</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5983404</v>
+        <v>5980957</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6101689</v>
+        <v>6101141</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8711475733630472</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.862299599063533</v>
+        <v>0.8619470378305477</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8793463215121009</v>
+        <v>0.879267352504255</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>170635</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148294</v>
+        <v>146283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>195685</v>
+        <v>194858</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2470424639759226</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2146977850615948</v>
+        <v>0.2117870744393866</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.283310265700315</v>
+        <v>0.2821128063384052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>307</v>
@@ -4740,19 +4740,19 @@
         <v>145812</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>129589</v>
+        <v>130693</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162297</v>
+        <v>163542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1986051380208978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1765083040862576</v>
+        <v>0.1780122049264652</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2210588964306527</v>
+        <v>0.2227543798204805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>500</v>
@@ -4761,19 +4761,19 @@
         <v>316446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>290344</v>
+        <v>289593</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>346197</v>
+        <v>345973</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2220849427622163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2037663291283075</v>
+        <v>0.2032387458339016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2429644973734187</v>
+        <v>0.2428072144673269</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>520075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>495025</v>
+        <v>495852</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>542416</v>
+        <v>544427</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7529575360240774</v>
+        <v>0.7529575360240776</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7166897342996851</v>
+        <v>0.7178871936615945</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7853022149384052</v>
+        <v>0.7882129255606133</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>934</v>
@@ -4811,19 +4811,19 @@
         <v>588368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>571883</v>
+        <v>570638</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>604591</v>
+        <v>603487</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8013948619791021</v>
+        <v>0.801394861979102</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.778941103569347</v>
+        <v>0.7772456201795193</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8234916959137425</v>
+        <v>0.8219877950735348</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1471</v>
@@ -4832,19 +4832,19 @@
         <v>1108443</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1078692</v>
+        <v>1078916</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1134545</v>
+        <v>1135296</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7779150572377836</v>
+        <v>0.7779150572377838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7570355026265814</v>
+        <v>0.7571927855326732</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7962336708716924</v>
+        <v>0.7967612541660982</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>173990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149251</v>
+        <v>150945</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>200701</v>
+        <v>202637</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1658754981959656</v>
+        <v>0.1658754981959655</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1422906450170328</v>
+        <v>0.1439054100207224</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1913411879986608</v>
+        <v>0.1931871343871998</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>293</v>
@@ -4957,19 +4957,19 @@
         <v>168262</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149840</v>
+        <v>148303</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186426</v>
+        <v>188886</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1570379094012962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1398451143678549</v>
+        <v>0.1384100532965586</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1739903765131821</v>
+        <v>0.1762864117428942</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>473</v>
@@ -4978,19 +4978,19 @@
         <v>342252</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310245</v>
+        <v>313335</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>374022</v>
+        <v>377228</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1614096957603289</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1463150559270926</v>
+        <v>0.1477723136828174</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1763931501844897</v>
+        <v>0.1779049858655726</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>874927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>848216</v>
+        <v>846280</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>899666</v>
+        <v>897972</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8341245018040345</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8086588120013389</v>
+        <v>0.8068128656128002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8577093549829672</v>
+        <v>0.8560945899792776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1224</v>
@@ -5028,19 +5028,19 @@
         <v>903212</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>885048</v>
+        <v>882588</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>921634</v>
+        <v>923171</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8429620905987036</v>
+        <v>0.8429620905987038</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8260096234868179</v>
+        <v>0.8237135882571058</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8601548856321453</v>
+        <v>0.8615899467034414</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2008</v>
@@ -5049,19 +5049,19 @@
         <v>1778139</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1746369</v>
+        <v>1743163</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1810146</v>
+        <v>1807056</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.838590304239671</v>
+        <v>0.8385903042396711</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8236068498155104</v>
+        <v>0.8220950141344274</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8536849440729074</v>
+        <v>0.8522276863171829</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>136560</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>110590</v>
+        <v>114593</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160550</v>
+        <v>165416</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1700473272306231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1377089450490036</v>
+        <v>0.1426937377706039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1999192599994507</v>
+        <v>0.2059790061951138</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>168</v>
@@ -5174,19 +5174,19 @@
         <v>111402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>95365</v>
+        <v>96785</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>128169</v>
+        <v>129926</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1371505061319832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1174074592206455</v>
+        <v>0.1191555871585068</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.157793173285415</v>
+        <v>0.1599568168591022</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>291</v>
@@ -5195,19 +5195,19 @@
         <v>247962</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>220440</v>
+        <v>219981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279369</v>
+        <v>275805</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1535053816874678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1364672826624029</v>
+        <v>0.13618338025813</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1729486257434809</v>
+        <v>0.1707421193564567</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>666513</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>642523</v>
+        <v>637657</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>692483</v>
+        <v>688480</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8299526727693769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8000807400005485</v>
+        <v>0.7940209938048861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8622910549509961</v>
+        <v>0.857306262229396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>879</v>
@@ -5245,19 +5245,19 @@
         <v>700857</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>684090</v>
+        <v>682333</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>716894</v>
+        <v>715474</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8628494938680168</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.842206826714585</v>
+        <v>0.8400431831408979</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8825925407793545</v>
+        <v>0.8808444128414933</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1432</v>
@@ -5266,19 +5266,19 @@
         <v>1367370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1335963</v>
+        <v>1339527</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1394892</v>
+        <v>1395351</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8464946183125321</v>
+        <v>0.8464946183125323</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8270513742565191</v>
+        <v>0.8292578806435434</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.863532717337597</v>
+        <v>0.8638166197418702</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>169792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147633</v>
+        <v>146528</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196744</v>
+        <v>193828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.171496165652519</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1491151281406941</v>
+        <v>0.1479990995964881</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1987185350547862</v>
+        <v>0.1957731250941883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>360</v>
@@ -5391,19 +5391,19 @@
         <v>232058</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209561</v>
+        <v>210004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254632</v>
+        <v>255065</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2073722991557536</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1872681269527661</v>
+        <v>0.1876642983118179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2275449996403605</v>
+        <v>0.2279321918210723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>553</v>
@@ -5412,19 +5412,19 @@
         <v>401850</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>368108</v>
+        <v>372260</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>432795</v>
+        <v>437711</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1905312087467754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.174533031724297</v>
+        <v>0.1765013574992977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2052032309152028</v>
+        <v>0.2075339360216754</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>820270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>793318</v>
+        <v>796234</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>842429</v>
+        <v>843534</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8285038343474809</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8012814649452135</v>
+        <v>0.8042268749058116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8508848718593059</v>
+        <v>0.8520009004035117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1202</v>
@@ -5462,19 +5462,19 @@
         <v>886983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>864409</v>
+        <v>863976</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>909480</v>
+        <v>909037</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7926277008442465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7724550003596394</v>
+        <v>0.7720678081789276</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.812731873047234</v>
+        <v>0.8123357016881824</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2015</v>
@@ -5483,19 +5483,19 @@
         <v>1707254</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1676309</v>
+        <v>1671393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1740996</v>
+        <v>1736844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8094687912532247</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7947967690847973</v>
+        <v>0.7924660639783248</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8254669682757031</v>
+        <v>0.8234986425007025</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>650977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>603154</v>
+        <v>603645</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>702730</v>
+        <v>696490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1842684426684743</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1707315394594008</v>
+        <v>0.1708704782635676</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.19891789453748</v>
+        <v>0.1971518063532197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1128</v>
@@ -5608,19 +5608,19 @@
         <v>657534</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>619803</v>
+        <v>622143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>696190</v>
+        <v>697485</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1759544836811777</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1658578430228926</v>
+        <v>0.166484069332754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1862987730698107</v>
+        <v>0.1866452576155651</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1817</v>
@@ -5629,19 +5629,19 @@
         <v>1308510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1245848</v>
+        <v>1247742</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1367892</v>
+        <v>1379589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1799947016645022</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1713751265729525</v>
+        <v>0.1716355767070825</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1881630531840626</v>
+        <v>0.1897720647703083</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2881785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2830032</v>
+        <v>2836272</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2929608</v>
+        <v>2929117</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8157315573315258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.80108210546252</v>
+        <v>0.8028481936467803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8292684605405996</v>
+        <v>0.8291295217364325</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4239</v>
@@ -5679,19 +5679,19 @@
         <v>3079420</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3040764</v>
+        <v>3039469</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3117151</v>
+        <v>3114811</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8240455163188224</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8137012269301892</v>
+        <v>0.8133547423844349</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8341421569771073</v>
+        <v>0.8335159306672459</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6926</v>
@@ -5700,19 +5700,19 @@
         <v>5961206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5901824</v>
+        <v>5890127</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6023868</v>
+        <v>6021974</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8200052983354977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8118369468159373</v>
+        <v>0.8102279352296921</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8286248734270473</v>
+        <v>0.8283644232929176</v>
       </c>
     </row>
     <row r="18">
